--- a/company_data/整机成品机对照/整机成品机对照.xlsx
+++ b/company_data/整机成品机对照/整机成品机对照.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CXS\Desktop\公司文件\ERP数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pyprogram\company_data\整机成品机对照\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6774E6-3E3D-48FE-BA0A-C6FC93DF08CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AFC10-F0A6-4092-806F-01B2DAD02DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD7FDF13-1A20-4893-ADB3-52DBD83BDCF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="709">
   <si>
     <t>成品机品名</t>
   </si>
@@ -2464,6 +2464,25 @@
   </si>
   <si>
     <t>双排单6色+2白（7套墨瓶加配白墨）</t>
+  </si>
+  <si>
+    <t>213208031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>213208030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2米/512I 30PL/8头/喷绘机/整机/YA/喷绘</t>
+  </si>
+  <si>
+    <t>带负压，国内(213208014)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带正压，国外(213208007)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2939,25 +2958,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0AAB9-20C5-41BC-A0D5-40C8BCDA9684}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="10" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="19.75" style="10" customWidth="1"/>
     <col min="7" max="7" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="19" customWidth="1"/>
     <col min="11" max="11" width="20.75" style="10" customWidth="1"/>
@@ -3538,7 +3557,9 @@
         <v>17</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -6862,7 +6883,7 @@
       <c r="C123" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="5" t="s">
         <v>240</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -6883,7 +6904,7 @@
       <c r="J123" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8765,6 +8786,60 @@
       <c r="I184" s="8"/>
       <c r="J184" s="9"/>
       <c r="K184" s="8"/>
+    </row>
+    <row r="185" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="9"/>
+      <c r="K185" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="9"/>
+      <c r="K186" s="8" t="s">
+        <v>707</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K182" xr:uid="{E29F35B4-75A3-4AC2-82ED-F8EF0542D72C}"/>
